--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshepard/Desktop/BeyondCarbon/data/output/EPS/template_v3/trans/MPoEFUbVT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC559F9-C0E3-C544-B172-B1C48A83B7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="23960" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -104,17 +103,7 @@
     <definedName name="max_biodsl">'Max Biofuel Blends'!$A$3</definedName>
     <definedName name="max_biogas">'Max Biofuel Blends'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -352,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,15 +484,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Table title" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,23 +583,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -646,23 +618,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,22 +793,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -863,7 +818,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +834,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -892,7 +847,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
@@ -905,7 +860,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -918,7 +873,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -931,7 +886,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -944,7 +899,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -954,7 +909,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -967,7 +922,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -980,7 +935,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
@@ -993,7 +948,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -1006,263 +961,263 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1270,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1278,12 +1233,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -1393,7 +1348,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1943,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2053,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2273,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2383,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2499,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2507,14 +2462,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2522,12 +2477,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -2637,7 +2592,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2747,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2857,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3187,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3297,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3407,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -3517,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -3627,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3743,7 +3698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3751,12 +3706,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -3866,7 +3821,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3976,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4086,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4196,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4306,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4416,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4526,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -4746,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -4856,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -4972,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4980,12 +4935,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -5095,7 +5050,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5315,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5535,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5680,7 +5635,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5790,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5900,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -6010,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -6120,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -6236,7 +6191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6244,12 +6199,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -6359,7 +6314,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6469,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6579,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6799,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6909,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7054,7 +7009,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7164,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -7274,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -7384,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -7500,22 +7455,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -7625,7 +7578,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7735,7 +7688,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7845,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7955,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8065,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8210,7 +8163,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8320,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8430,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -8540,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -8650,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -8766,7 +8719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8774,12 +8727,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -8889,7 +8842,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8999,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9109,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9219,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9329,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9439,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9549,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9659,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -9769,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -9879,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -9995,7 +9948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10003,12 +9956,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -10118,7 +10071,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10228,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10338,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10448,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10558,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10668,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10778,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10888,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -10998,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -11108,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -11224,7 +11177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11232,28 +11185,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.25</v>
       </c>
@@ -11261,7 +11212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -11269,12 +11220,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2030</v>
       </c>
@@ -11282,7 +11233,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -11290,12 +11241,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -11402,7 +11353,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11419,132 +11370,132 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,F10:$AI$10)</f>
+        <f t="shared" ref="F11:Y11" si="0">TREND($A$7:$B$7,$A$6:$B$6,F10:AK10)</f>
         <v>9.9999999999980105E-3</v>
       </c>
       <c r="G11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,G10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999996021E-2</v>
       </c>
       <c r="H11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,H10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999997584E-2</v>
       </c>
       <c r="I11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,I10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>3.9999999999999147E-2</v>
       </c>
       <c r="J11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,J10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="K11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,K10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>5.9999999999998721E-2</v>
       </c>
       <c r="L11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,L10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>6.9999999999996732E-2</v>
       </c>
       <c r="M11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,M10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>7.9999999999998295E-2</v>
       </c>
       <c r="N11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,N10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>8.9999999999996305E-2</v>
       </c>
       <c r="O11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,O10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999997868E-2</v>
       </c>
       <c r="P11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,P10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.10999999999999943</v>
       </c>
       <c r="Q11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,Q10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.11999999999999744</v>
       </c>
       <c r="R11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,R10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.12999999999999901</v>
       </c>
       <c r="S11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,S10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.13999999999999702</v>
       </c>
       <c r="T11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,T10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.14999999999999858</v>
       </c>
       <c r="U11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,U10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.15999999999999659</v>
       </c>
       <c r="V11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,V10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.16999999999999815</v>
       </c>
       <c r="W11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,W10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.17999999999999616</v>
       </c>
       <c r="X11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,X10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.18999999999999773</v>
       </c>
       <c r="Y11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,Y10:$AI$10)</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="Z11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,Z10:$AI$10)</f>
-        <v>0.2099999999999973</v>
+        <f>Y11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AA10:$AI$10)</f>
-        <v>0.21999999999999886</v>
+        <f t="shared" ref="AA11:AI11" si="1">Z11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AB10:$AI$10)</f>
-        <v>0.22999999999999687</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AC10:$AI$10)</f>
-        <v>0.23999999999999844</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AD10:$AI$10)</f>
-        <v>0.24999999999999645</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AE10:$AI$10)</f>
-        <v>0.25999999999999801</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AF10:$AI$10)</f>
-        <v>0.26999999999999602</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AG10:$AI$10)</f>
-        <v>0.27999999999999758</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AH10:$AI$10)</f>
-        <v>0.28999999999999915</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI11">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,AI10:$AI$10)</f>
-        <v>0.29999999999999716</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -11556,7 +11507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11564,12 +11515,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -11679,7 +11630,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11789,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11899,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12009,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12119,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12229,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12339,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12449,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -12559,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -12669,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -12785,7 +12736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12793,12 +12744,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -12908,7 +12859,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13018,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13128,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13238,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13348,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13458,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13568,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13678,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -13788,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -13898,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -14014,7 +13965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14022,12 +13973,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -14137,7 +14088,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14247,7 +14198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14357,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14467,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14577,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14722,7 +14673,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14832,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14942,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -15052,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -15162,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -15278,7 +15229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15286,12 +15237,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -15401,7 +15352,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15511,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15621,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15731,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -15841,7 +15792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -15951,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16096,7 +16047,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16206,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -16316,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -16426,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -16542,7 +16493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16550,12 +16501,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -16665,7 +16616,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16775,7 +16726,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -16885,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -16995,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17105,7 +17056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17215,7 +17166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17360,7 +17311,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17470,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -17580,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -17690,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -17806,7 +17757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17814,12 +17765,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -17929,7 +17880,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18039,7 +17990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18149,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18259,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18369,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18479,7 +18430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18589,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18699,7 +18650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -18809,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -18919,7 +18870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -19035,7 +18986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -19043,12 +18994,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -19158,7 +19109,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19268,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19378,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19488,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19598,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19708,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19818,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -19928,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -20038,7 +19989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -20148,7 +20099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -20264,7 +20215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -20272,14 +20223,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20287,12 +20238,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -20402,7 +20353,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20512,7 +20463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20622,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20732,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -20842,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -20952,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21062,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21172,7 +21123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -21282,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -21392,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -21508,7 +21459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21516,12 +21467,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -21631,7 +21582,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21741,7 +21692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -21851,7 +21802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -21961,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22071,7 +22022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22181,7 +22132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22291,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22401,7 +22352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -22511,7 +22462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -22621,7 +22572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -22737,7 +22688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -22745,14 +22696,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22760,12 +22711,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -22875,7 +22826,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -22985,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23095,7 +23046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23205,7 +23156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23315,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23460,7 +23411,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23570,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23680,7 +23631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -23790,7 +23741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -23900,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -24016,7 +23967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24024,12 +23975,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -24139,7 +24090,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24249,7 +24200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24359,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24469,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24579,7 +24530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24689,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -24834,7 +24785,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -24944,7 +24895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -25054,7 +25005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -25164,7 +25115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -25280,7 +25231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25288,12 +25239,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -25403,7 +25354,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25513,7 +25464,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25623,7 +25574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25733,7 +25684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -25843,7 +25794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -25953,7 +25904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26098,7 +26049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26208,7 +26159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -26318,7 +26269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -26428,7 +26379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -26544,7 +26495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -26552,12 +26503,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -26667,7 +26618,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26777,7 +26728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -26887,7 +26838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -26997,7 +26948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27107,7 +27058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27217,7 +27168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27327,7 +27278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27437,7 +27388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -27547,7 +27498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -27657,7 +27608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -27773,7 +27724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -27781,12 +27732,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -27896,7 +27847,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28006,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28116,7 +28067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28226,7 +28177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28336,7 +28287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28446,7 +28397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28556,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28666,7 +28617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -28776,7 +28727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -28886,7 +28837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -29002,7 +28953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -29010,14 +28961,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -29025,12 +28976,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -29137,7 +29088,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29244,7 +29195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29351,7 +29302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29458,7 +29409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29565,7 +29516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29672,7 +29623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29779,7 +29730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29886,7 +29837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -29993,7 +29944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -30100,7 +30051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -30213,7 +30164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -30221,12 +30172,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -30333,7 +30284,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30440,7 +30391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30547,7 +30498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30654,7 +30605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30761,7 +30712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -30868,7 +30819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -30975,7 +30926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31082,7 +31033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -31189,7 +31140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -31296,7 +31247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -31409,7 +31360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -31417,12 +31368,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -31529,7 +31480,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31636,7 +31587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31743,7 +31694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -31850,7 +31801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -31957,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32059,46 +32010,46 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32205,7 +32156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32312,7 +32263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -32419,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -32526,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -32639,7 +32590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -32647,12 +32598,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -32759,7 +32710,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -32866,7 +32817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -32973,7 +32924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33080,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33187,7 +33138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33294,7 +33245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33396,46 +33347,46 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33542,7 +33493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -33649,7 +33600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -33756,7 +33707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -33869,7 +33820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -33877,12 +33828,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -33992,7 +33943,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34102,7 +34053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34212,7 +34163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34322,7 +34273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34432,7 +34383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34542,7 +34493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34652,7 +34603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34762,7 +34713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -34872,7 +34823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -34982,7 +34933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -35098,7 +35049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -35106,12 +35057,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -35218,7 +35169,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35325,7 +35276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35432,7 +35383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35539,7 +35490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35646,7 +35597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35753,7 +35704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -35860,7 +35811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -35967,7 +35918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -36074,7 +36025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -36181,7 +36132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -36294,7 +36245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -36302,14 +36253,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -36317,12 +36268,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -36429,7 +36380,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36536,7 +36487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36643,7 +36594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36750,7 +36701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -36857,7 +36808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -36964,7 +36915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37071,7 +37022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37178,7 +37129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -37285,7 +37236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -37392,7 +37343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -37505,7 +37456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -37513,12 +37464,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -37625,7 +37576,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37732,7 +37683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -37839,7 +37790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -37946,7 +37897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38053,7 +38004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38160,7 +38111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38267,7 +38218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38374,7 +38325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -38481,7 +38432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -38588,7 +38539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -38701,7 +38652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -38709,12 +38660,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -38821,7 +38772,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -38928,7 +38879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39035,7 +38986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39142,7 +39093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39249,7 +39200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39351,46 +39302,46 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39497,7 +39448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39604,7 +39555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -39711,7 +39662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -39818,7 +39769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -39931,7 +39882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -39939,12 +39890,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -40051,7 +40002,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40158,7 +40109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40265,7 +40216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40372,7 +40323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40479,7 +40430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40586,7 +40537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40688,46 +40639,46 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -40834,7 +40785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -40941,7 +40892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -41048,7 +40999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -41161,7 +41112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -41169,12 +41120,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -41281,7 +41232,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41388,7 +41339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41495,7 +41446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41602,7 +41553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41709,7 +41660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41816,7 +41767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -41923,7 +41874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42030,7 +41981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -42137,7 +42088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -42244,7 +42195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -42357,7 +42308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -42365,14 +42316,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -42380,12 +42331,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -42492,7 +42443,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42599,7 +42550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42706,7 +42657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42813,7 +42764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -42920,7 +42871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43027,7 +42978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43134,7 +43085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43241,7 +43192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -43348,7 +43299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -43455,7 +43406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -43568,7 +43519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -43576,12 +43527,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -43688,7 +43639,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43795,7 +43746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -43902,7 +43853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44009,7 +43960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44116,7 +44067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44223,7 +44174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44330,7 +44281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44437,7 +44388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -44544,7 +44495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -44651,7 +44602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -44764,7 +44715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -44772,12 +44723,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -44887,7 +44838,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -44997,7 +44948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45107,7 +45058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45217,7 +45168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45327,7 +45278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45437,7 +45388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45547,7 +45498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45657,7 +45608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -45767,7 +45718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -45877,7 +45828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -45993,7 +45944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -46001,12 +45952,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -46113,7 +46064,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46220,7 +46171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46327,7 +46278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46434,7 +46385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46541,7 +46492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46643,46 +46594,46 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46789,7 +46740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -46896,7 +46847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -47003,7 +46954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -47110,7 +47061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -47223,7 +47174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -47231,12 +47182,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -47343,7 +47294,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47450,7 +47401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47557,7 +47508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47664,7 +47615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47771,7 +47722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -47878,7 +47829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -47980,46 +47931,46 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48126,7 +48077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -48233,7 +48184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -48340,7 +48291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -48453,7 +48404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -48461,12 +48412,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -48573,7 +48524,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48680,7 +48631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48787,7 +48738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -48894,7 +48845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49001,7 +48952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49108,7 +49059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49215,7 +49166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49322,7 +49273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -49429,7 +49380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -49536,7 +49487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -49649,7 +49600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -49657,14 +49608,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -49672,12 +49623,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -49784,7 +49735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -49891,7 +49842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -49998,7 +49949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50105,7 +50056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50212,7 +50163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50319,7 +50270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50426,7 +50377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50533,7 +50484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -50640,7 +50591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -50747,7 +50698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -50860,7 +50811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -50868,12 +50819,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -50980,7 +50931,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51087,7 +51038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51194,7 +51145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51301,7 +51252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51408,7 +51359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51515,7 +51466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51622,7 +51573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51729,7 +51680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -51836,7 +51787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -51943,7 +51894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -52056,7 +52007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -52064,12 +52015,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -52176,7 +52127,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52283,7 +52234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52390,7 +52341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52497,7 +52448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52604,7 +52555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52706,46 +52657,46 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -52852,7 +52803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -52959,7 +52910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -53066,7 +53017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -53173,7 +53124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -53286,7 +53237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -53294,12 +53245,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -53406,7 +53357,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53513,7 +53464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53620,7 +53571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53727,7 +53678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -53834,7 +53785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -53941,7 +53892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54043,46 +53994,46 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54189,7 +54140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -54296,7 +54247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -54403,7 +54354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -54516,7 +54467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -54524,12 +54475,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -54636,7 +54587,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54743,7 +54694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -54850,7 +54801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -54957,7 +54908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55064,7 +55015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55171,7 +55122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55278,7 +55229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55385,7 +55336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -55492,7 +55443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -55599,7 +55550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -55712,7 +55663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -55720,14 +55671,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -55735,12 +55686,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -55850,7 +55801,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -55960,7 +55911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56070,7 +56021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56180,7 +56131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56290,7 +56241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56435,7 +56386,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56545,7 +56496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56655,7 +56606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -56765,7 +56716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -56875,7 +56826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -56991,7 +56942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -56999,12 +56950,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -57111,7 +57062,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57218,7 +57169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57325,7 +57276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57432,7 +57383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57539,7 +57490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57646,7 +57597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57753,7 +57704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -57860,7 +57811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -57967,7 +57918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -58074,7 +58025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -58187,7 +58138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -58195,12 +58146,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -58307,7 +58258,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58414,7 +58365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58521,7 +58472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58628,7 +58579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58735,7 +58686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -58842,7 +58793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -58949,7 +58900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59056,7 +59007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -59163,7 +59114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -59270,7 +59221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -59383,7 +59334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -59391,12 +59342,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -59503,7 +59454,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59610,7 +59561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59717,7 +59668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -59824,7 +59775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -59931,7 +59882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -60033,46 +59984,46 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60179,7 +60130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60286,7 +60237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -60393,7 +60344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -60500,7 +60451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -60613,7 +60564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -60621,12 +60572,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -60733,7 +60684,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -60840,7 +60791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -60947,7 +60898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61054,7 +61005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61161,7 +61112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61268,7 +61219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61370,46 +61321,46 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61516,7 +61467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -61623,7 +61574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -61730,7 +61681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -61843,7 +61794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -61851,12 +61802,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -61963,7 +61914,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62070,7 +62021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62177,7 +62128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62284,7 +62235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62391,7 +62342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62498,7 +62449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62605,7 +62556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62712,7 +62663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -62819,7 +62770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -62926,7 +62877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -63039,7 +62990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -63047,14 +62998,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -63062,12 +63013,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -63174,7 +63125,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63281,7 +63232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63388,7 +63339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63495,7 +63446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63602,7 +63553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63709,7 +63660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63816,7 +63767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -63923,7 +63874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -64030,7 +63981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -64137,7 +64088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -64250,7 +64201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -64258,12 +64209,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -64370,7 +64321,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64477,7 +64428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64584,7 +64535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64691,7 +64642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64798,7 +64749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -64905,7 +64856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65012,7 +64963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65119,7 +65070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -65226,7 +65177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -65333,7 +65284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -65446,7 +65397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -65454,12 +65405,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -65566,7 +65517,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65673,7 +65624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65780,7 +65731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -65887,7 +65838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -65994,7 +65945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66096,46 +66047,46 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66242,7 +66193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66349,7 +66300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -66456,7 +66407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -66563,7 +66514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -66676,7 +66627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -66684,12 +66635,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -66796,7 +66747,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -66903,7 +66854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67010,7 +66961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67117,7 +67068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67224,7 +67175,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67331,7 +67282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67433,46 +67384,46 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.2099999999999973</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.21999999999999886</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.22999999999999687</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.23999999999999844</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.24999999999999645</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.25999999999999801</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.26999999999999602</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.27999999999999758</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.28999999999999915</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.29999999999999716</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67579,7 +67530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -67686,7 +67637,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -67793,7 +67744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -67906,7 +67857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -67914,12 +67865,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -68029,7 +67980,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68139,7 +68090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68249,7 +68200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68359,7 +68310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68469,7 +68420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68579,7 +68530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68724,7 +68675,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68834,7 +68785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -68944,7 +68895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -69054,7 +69005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -69170,7 +69121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -69178,12 +69129,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -69290,7 +69241,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69397,7 +69348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69504,7 +69455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69611,7 +69562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69718,7 +69669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69825,7 +69776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -69932,7 +69883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70039,7 +69990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -70146,7 +70097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -70253,7 +70204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -70366,7 +70317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -70374,14 +70325,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -70389,12 +70340,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -70504,7 +70455,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70614,7 +70565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70724,7 +70675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70834,7 +70785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -70944,7 +70895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71054,7 +71005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71164,7 +71115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71274,7 +71225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -71384,7 +71335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -71494,7 +71445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -71610,7 +71561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -71618,12 +71569,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -71733,7 +71684,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71843,7 +71794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -71953,7 +71904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72063,7 +72014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72173,7 +72124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72283,7 +72234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72393,7 +72344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72503,7 +72454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -72613,7 +72564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -72723,7 +72674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -72839,7 +72790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -72847,12 +72798,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -72962,7 +72913,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73072,7 +73023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73182,7 +73133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73292,7 +73243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73402,7 +73353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73547,7 +73498,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73657,7 +73608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73767,7 +73718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -73877,7 +73828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -73987,7 +73938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -74103,7 +74054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -74113,12 +74064,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -74228,7 +74179,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74338,7 +74289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74448,7 +74399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74558,7 +74509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74668,7 +74619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74778,7 +74729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -74923,7 +74874,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75033,7 +74984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -75143,7 +75094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -75253,7 +75204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -75369,7 +75320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -75377,12 +75328,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -75492,7 +75443,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75602,7 +75553,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75712,7 +75663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75822,7 +75773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -75932,7 +75883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76077,7 +76028,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76187,7 +76138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76297,7 +76248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -76407,7 +76358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -76517,7 +76468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -76633,7 +76584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -76641,12 +76592,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -76756,7 +76707,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76866,7 +76817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -76976,7 +76927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77086,7 +77037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77196,7 +77147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77306,7 +77257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77416,7 +77367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77526,7 +77477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -77636,7 +77587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -77746,7 +77697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -77862,7 +77813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -77870,12 +77821,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -77985,7 +77936,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78095,7 +78046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78205,7 +78156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78315,7 +78266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78425,7 +78376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78535,7 +78486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78645,7 +78596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78755,7 +78706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -78865,7 +78816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -78975,7 +78926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -79091,7 +79042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -79099,14 +79050,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -79114,12 +79065,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -79229,7 +79180,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79339,7 +79290,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79449,7 +79400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79559,7 +79510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79669,7 +79620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79814,7 +79765,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79924,7 +79875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80034,7 +79985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -80144,7 +80095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -80254,7 +80205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -80373,7 +80324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -80381,12 +80332,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -80496,7 +80447,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80606,7 +80557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80716,7 +80667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80826,7 +80777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80936,7 +80887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81046,7 +80997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81156,7 +81107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81266,7 +81217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -81376,7 +81327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -81486,7 +81437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -81602,7 +81553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -81610,12 +81561,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -81725,7 +81676,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81835,7 +81786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81945,7 +81896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82055,7 +82006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82165,7 +82116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82275,7 +82226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82385,7 +82336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82495,7 +82446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -82605,7 +82556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -82715,7 +82666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -82831,7 +82782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -82839,12 +82790,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -82954,7 +82905,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83064,7 +83015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83174,7 +83125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83284,7 +83235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83394,7 +83345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83539,7 +83490,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83649,7 +83600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83759,7 +83710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -83869,7 +83820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -83979,7 +83930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -84095,7 +84046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -84103,12 +84054,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -84218,7 +84169,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84328,7 +84279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84438,7 +84389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84548,7 +84499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84658,7 +84609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84768,7 +84719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84913,7 +84864,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85023,7 +84974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -85133,7 +85084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -85243,7 +85194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -85359,7 +85310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -85367,12 +85318,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -85482,7 +85433,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85592,7 +85543,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85702,7 +85653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85812,7 +85763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85922,7 +85873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86067,7 +86018,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86177,7 +86128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86287,7 +86238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -86397,7 +86348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -86507,7 +86458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -86623,7 +86574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -86631,12 +86582,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -86746,7 +86697,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86856,7 +86807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -86966,7 +86917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87076,7 +87027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87186,7 +87137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87296,7 +87247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87406,7 +87357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87516,7 +87467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -87626,7 +87577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -87736,7 +87687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -87852,7 +87803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -87860,12 +87811,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -87975,7 +87926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88085,7 +88036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88195,7 +88146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88305,7 +88256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88415,7 +88366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88525,7 +88476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88635,7 +88586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88745,7 +88696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -88855,7 +88806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -88965,7 +88916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -89081,7 +89032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -89089,12 +89040,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -89204,7 +89155,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89314,7 +89265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89424,7 +89375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89534,7 +89485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89644,7 +89595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89754,7 +89705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89864,7 +89815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -89974,7 +89925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -90084,7 +90035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -90194,7 +90145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MN\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7B4291-E6FB-41B5-892B-F14E05CE40A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FBF57E-9E0A-4861-96FF-003F2EEA3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="8870" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="74">
   <si>
     <t>Sources:</t>
   </si>
@@ -365,9 +365,6 @@
   <si>
     <t>We use a 100% maximum value to represent drop-in biofuel replacements.</t>
   </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
 </sst>
 </file>
 
@@ -501,7 +498,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -517,7 +514,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -830,29 +826,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.26953125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45450</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,285 +850,285 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>44317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1161,12 +1151,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -1276,7 +1266,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2266,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2390,7 +2380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2405,12 +2395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3070,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3180,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3400,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3510,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3634,12 +3624,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4079,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4519,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4629,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4739,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4865,12 +4855,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -4980,7 +4970,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5090,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5565,7 +5555,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5895,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -6005,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6131,12 +6121,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -6246,7 +6236,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6356,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6466,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6576,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6941,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7051,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -7161,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7271,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7397,12 +7387,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -7512,7 +7502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7622,7 +7612,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7732,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7842,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7952,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8097,7 +8087,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8207,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8317,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8427,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -8537,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8661,12 +8651,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -8776,7 +8766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8886,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8996,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9106,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9216,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9436,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9546,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -9656,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -9766,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9890,12 +9880,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -10005,7 +9995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10115,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10225,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10335,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10445,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10555,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10665,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10775,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -10885,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -10995,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11119,7 +11109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11133,17 +11123,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.15</v>
       </c>
@@ -11151,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11159,12 +11149,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -11172,7 +11162,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11180,12 +11170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -11193,7 +11183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11201,12 +11191,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11313,7 +11303,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11449,11 +11439,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11696,17 +11686,17 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
@@ -11725,12 +11715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -11840,7 +11830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11950,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12060,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12170,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12280,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12390,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12500,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12610,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12720,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -12830,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12954,12 +12944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -13069,7 +13059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13179,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13289,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13399,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13509,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13619,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13729,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13839,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13949,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -14059,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14185,12 +14175,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -14300,7 +14290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14410,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14520,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14630,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14740,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14885,7 +14875,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14995,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15105,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -15215,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -15325,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15451,12 +15441,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -15566,7 +15556,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15676,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15786,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15896,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16006,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16116,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16261,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16371,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -16481,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16591,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -16717,12 +16707,12 @@
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -16832,7 +16822,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16942,7 +16932,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -17052,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17162,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17272,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17382,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17527,7 +17517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17637,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -17747,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17857,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -17981,12 +17971,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -18096,7 +18086,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18206,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18316,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18426,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18536,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18646,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18756,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18866,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -18976,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -19086,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -19210,12 +19200,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -19325,7 +19315,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19435,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19545,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19655,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19765,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19875,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19985,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20095,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -20205,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -20315,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -20439,7 +20429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20454,12 +20444,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -20569,7 +20559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20679,7 +20669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20789,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20899,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -21009,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -21119,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21229,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21339,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -21449,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -21559,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -21683,12 +21673,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -21798,7 +21788,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21908,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22018,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22128,7 +22118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22238,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22348,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22458,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22568,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -22678,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -22788,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22912,7 +22902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22929,12 +22919,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -23044,7 +23034,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23154,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23264,7 +23254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23374,7 +23364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23484,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23629,7 +23619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23739,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23849,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -23959,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -24069,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -24195,12 +24185,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -24310,7 +24300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24420,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24530,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24640,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24750,7 +24740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24860,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -25005,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -25225,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -25335,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -25461,12 +25451,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -25576,7 +25566,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25686,7 +25676,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25796,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25906,7 +25896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26016,7 +26006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26126,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26271,7 +26261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26381,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -26491,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -26601,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -26725,12 +26715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -26840,7 +26830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26950,7 +26940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -27060,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -27170,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27280,7 +27270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27390,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27500,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27610,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -27720,7 +27710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -27830,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -27954,12 +27944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -28069,7 +28059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28179,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28289,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28399,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28509,7 +28499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28619,7 +28609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28729,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28839,7 +28829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -28949,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -29059,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -29183,7 +29173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29198,12 +29188,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -29310,7 +29300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29417,7 +29407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29524,7 +29514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29631,7 +29621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29738,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29845,7 +29835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29952,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -30059,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -30166,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -30273,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -30394,12 +30384,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -30506,7 +30496,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30613,7 +30603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30720,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30827,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30934,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31041,7 +31031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -31148,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31255,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -31362,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -31469,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -31592,12 +31582,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -31704,7 +31694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31811,7 +31801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31918,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32025,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32132,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32273,7 +32263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32380,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32487,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -32594,7 +32584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -32701,7 +32691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -32824,12 +32814,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -32936,7 +32926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -33043,7 +33033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -33150,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33257,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33364,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33471,7 +33461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33612,7 +33602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33719,7 +33709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -33826,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -33933,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -34054,12 +34044,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -34169,7 +34159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34279,7 +34269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34389,7 +34379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34499,7 +34489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34609,7 +34599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34719,7 +34709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34829,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34939,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -35049,7 +35039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -35159,7 +35149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -35283,12 +35273,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -35395,7 +35385,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35502,7 +35492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35609,7 +35599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35716,7 +35706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35823,7 +35813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35930,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -36037,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -36144,7 +36134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -36251,7 +36241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -36358,7 +36348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -36479,7 +36469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36494,12 +36484,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -36606,7 +36596,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36713,7 +36703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36820,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36927,7 +36917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -37034,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -37141,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37248,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37355,7 +37345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -37462,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -37569,7 +37559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -37690,12 +37680,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -37802,7 +37792,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37909,7 +37899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -38016,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -38123,7 +38113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38230,7 +38220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38337,7 +38327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38444,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38551,7 +38541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -38658,7 +38648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -38765,7 +38755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -38886,12 +38876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -38998,7 +38988,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -39105,7 +39095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39212,7 +39202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39319,7 +39309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39426,7 +39416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39567,7 +39557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39674,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39781,7 +39771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -39888,7 +39878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -39995,7 +39985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -40116,12 +40106,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -40228,7 +40218,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40335,7 +40325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40442,7 +40432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40549,7 +40539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40656,7 +40646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40763,7 +40753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40904,7 +40894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -41011,7 +41001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -41118,7 +41108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -41225,7 +41215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41346,12 +41336,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -41458,7 +41448,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41565,7 +41555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41672,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41779,7 +41769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41886,7 +41876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41993,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -42100,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42207,7 +42197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -42314,7 +42304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -42421,7 +42411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -42542,7 +42532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42557,12 +42547,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -42669,7 +42659,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42776,7 +42766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42883,7 +42873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42990,7 +42980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -43097,7 +43087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43204,7 +43194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43311,7 +43301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43418,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -43525,7 +43515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -43632,7 +43622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -43753,12 +43743,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -43865,7 +43855,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43972,7 +43962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -44079,7 +44069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44186,7 +44176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44293,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44400,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44507,7 +44497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44614,7 +44604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -44721,7 +44711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -44828,7 +44818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -44949,12 +44939,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -45064,7 +45054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -45174,7 +45164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45284,7 +45274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45394,7 +45384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45504,7 +45494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45614,7 +45604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45724,7 +45714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45834,7 +45824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -45944,7 +45934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -46054,7 +46044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -46178,12 +46168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -46290,7 +46280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46397,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46504,7 +46494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46611,7 +46601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46718,7 +46708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46859,7 +46849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46966,7 +46956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -47073,7 +47063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -47180,7 +47170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -47287,7 +47277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -47408,12 +47398,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -47520,7 +47510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47627,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47734,7 +47724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47841,7 +47831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47948,7 +47938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -48055,7 +48045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -48196,7 +48186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48303,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -48410,7 +48400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -48517,7 +48507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -48638,12 +48628,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -48750,7 +48740,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48857,7 +48847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48964,7 +48954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -49071,7 +49061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49178,7 +49168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49285,7 +49275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49392,7 +49382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49499,7 +49489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -49606,7 +49596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -49713,7 +49703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -49834,7 +49824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49849,12 +49839,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -49961,7 +49951,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -50068,7 +50058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -50175,7 +50165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50282,7 +50272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50389,7 +50379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50496,7 +50486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50603,7 +50593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50710,7 +50700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -50817,7 +50807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -50924,7 +50914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -51045,12 +51035,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -51157,7 +51147,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51264,7 +51254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51371,7 +51361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51478,7 +51468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51585,7 +51575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51692,7 +51682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51799,7 +51789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51906,7 +51896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -52013,7 +52003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -52120,7 +52110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -52241,12 +52231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -52353,7 +52343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52460,7 +52450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52567,7 +52557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52674,7 +52664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52781,7 +52771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52922,7 +52912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -53029,7 +53019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -53136,7 +53126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -53243,7 +53233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -53350,7 +53340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -53471,12 +53461,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -53583,7 +53573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53690,7 +53680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53797,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53904,7 +53894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -54011,7 +54001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -54118,7 +54108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54259,7 +54249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54366,7 +54356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -54473,7 +54463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -54580,7 +54570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -54701,12 +54691,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -54813,7 +54803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54920,7 +54910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -55027,7 +55017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -55134,7 +55124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55241,7 +55231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55348,7 +55338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55455,7 +55445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55562,7 +55552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -55669,7 +55659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -55776,7 +55766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -55897,7 +55887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55914,12 +55904,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -56029,7 +56019,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -56139,7 +56129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56249,7 +56239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56359,7 +56349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56469,7 +56459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56614,7 +56604,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56724,7 +56714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56834,7 +56824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -56944,7 +56934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -57054,7 +57044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -57178,12 +57168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -57290,7 +57280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57397,7 +57387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57504,7 +57494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57611,7 +57601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57718,7 +57708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57825,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57932,7 +57922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -58039,7 +58029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -58146,7 +58136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -58253,7 +58243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -58374,12 +58364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -58486,7 +58476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58593,7 +58583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58700,7 +58690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58807,7 +58797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58914,7 +58904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -59021,7 +59011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -59128,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59235,7 +59225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -59342,7 +59332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -59449,7 +59439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -59570,12 +59560,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -59682,7 +59672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59789,7 +59779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59896,7 +59886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -60003,7 +59993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -60110,7 +60100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -60251,7 +60241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60358,7 +60348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60465,7 +60455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -60572,7 +60562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -60679,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -60800,12 +60790,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -60912,7 +60902,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -61019,7 +61009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -61126,7 +61116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61233,7 +61223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61340,7 +61330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61447,7 +61437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61588,7 +61578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61695,7 +61685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -61802,7 +61792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -61909,7 +61899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -62030,12 +62020,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -62142,7 +62132,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62249,7 +62239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62356,7 +62346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62463,7 +62453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62570,7 +62560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62677,7 +62667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62784,7 +62774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62891,7 +62881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -62998,7 +62988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -63105,7 +63095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -63226,7 +63216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63241,12 +63231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -63353,7 +63343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63460,7 +63450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63567,7 +63557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63674,7 +63664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63781,7 +63771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63888,7 +63878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63995,7 +63985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -64102,7 +64092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -64209,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -64316,7 +64306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -64437,12 +64427,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -64549,7 +64539,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64656,7 +64646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64763,7 +64753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64870,7 +64860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64977,7 +64967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -65084,7 +65074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65191,7 +65181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65298,7 +65288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -65405,7 +65395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -65512,7 +65502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -65633,12 +65623,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -65745,7 +65735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65852,7 +65842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65959,7 +65949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -66066,7 +66056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -66173,7 +66163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66314,7 +66304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66421,7 +66411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66528,7 +66518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -66635,7 +66625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -66742,7 +66732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -66865,12 +66855,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -66977,7 +66967,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -67084,7 +67074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67191,7 +67181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67298,7 +67288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67405,7 +67395,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67512,7 +67502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67653,7 +67643,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67760,7 +67750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -67867,7 +67857,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -67974,7 +67964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -68097,12 +68087,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -68212,7 +68202,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68322,7 +68312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68432,7 +68422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68542,7 +68532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68652,7 +68642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68762,7 +68752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68872,7 +68862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68982,7 +68972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -69092,7 +69082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -69202,7 +69192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -69326,12 +69316,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -69438,7 +69428,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69545,7 +69535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69652,7 +69642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69759,7 +69749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69866,7 +69856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69973,7 +69963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -70080,7 +70070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70187,7 +70177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -70294,7 +70284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -70401,7 +70391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -70522,7 +70512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70537,12 +70527,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -70652,7 +70642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70762,7 +70752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70872,7 +70862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70982,7 +70972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -71092,7 +71082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71202,7 +71192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71312,7 +71302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71422,7 +71412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -71532,7 +71522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -71642,7 +71632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -71766,12 +71756,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -71881,7 +71871,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71991,7 +71981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -72101,7 +72091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72211,7 +72201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72321,7 +72311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72431,7 +72421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72541,7 +72531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72651,7 +72641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -72761,7 +72751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -72871,7 +72861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -72997,12 +72987,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -73112,7 +73102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73222,7 +73212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73332,7 +73322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73442,7 +73432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73552,7 +73542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73662,7 +73652,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73772,7 +73762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73882,7 +73872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -73992,7 +73982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -74102,7 +74092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -74228,12 +74218,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -74343,7 +74333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74453,7 +74443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74563,7 +74553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74673,7 +74663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74783,7 +74773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74893,7 +74883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -75003,7 +74993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75113,7 +75103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -75223,7 +75213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -75333,7 +75323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -75459,12 +75449,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -75574,7 +75564,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75684,7 +75674,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75794,7 +75784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75904,7 +75894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -76014,7 +76004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76124,7 +76114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76234,7 +76224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76344,7 +76334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -76454,7 +76444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -76564,7 +76554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -76688,12 +76678,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -76803,7 +76793,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76913,7 +76903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -77023,7 +77013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77133,7 +77123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77243,7 +77233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77353,7 +77343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77463,7 +77453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77573,7 +77563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -77683,7 +77673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -77793,7 +77783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -77917,12 +77907,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -78032,7 +78022,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78142,7 +78132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78252,7 +78242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78362,7 +78352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78472,7 +78462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78582,7 +78572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78692,7 +78682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78802,7 +78792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -78912,7 +78902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -79022,7 +79012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -79146,7 +79136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79163,12 +79153,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -79278,7 +79268,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79388,7 +79378,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79498,7 +79488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79608,7 +79598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79718,7 +79708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79863,7 +79853,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79973,7 +79963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80083,7 +80073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -80193,7 +80183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -80303,7 +80293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -80430,12 +80420,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -80545,7 +80535,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80655,7 +80645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80765,7 +80755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80875,7 +80865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80985,7 +80975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81095,7 +81085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81205,7 +81195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81315,7 +81305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -81425,7 +81415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -81535,7 +81525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -81659,12 +81649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -81774,7 +81764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81884,7 +81874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81994,7 +81984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82104,7 +82094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82214,7 +82204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82324,7 +82314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82434,7 +82424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82544,7 +82534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -82654,7 +82644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -82764,7 +82754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -82890,12 +82880,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -83005,7 +82995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83115,7 +83105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83225,7 +83215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83335,7 +83325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83445,7 +83435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83590,7 +83580,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83700,7 +83690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83810,7 +83800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -83920,7 +83910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -84030,7 +84020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -84156,12 +84146,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -84271,7 +84261,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84381,7 +84371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84491,7 +84481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84601,7 +84591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84711,7 +84701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84821,7 +84811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84966,7 +84956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85076,7 +85066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -85186,7 +85176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -85296,7 +85286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -85422,12 +85412,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -85537,7 +85527,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85647,7 +85637,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85757,7 +85747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85867,7 +85857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85977,7 +85967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86122,7 +86112,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86232,7 +86222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86342,7 +86332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -86452,7 +86442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -86562,7 +86552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -86686,12 +86676,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -86801,7 +86791,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86911,7 +86901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -87021,7 +87011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87131,7 +87121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87241,7 +87231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87351,7 +87341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87461,7 +87451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87571,7 +87561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -87681,7 +87671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -87791,7 +87781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -87915,12 +87905,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -88030,7 +88020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88140,7 +88130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88250,7 +88240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88360,7 +88350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88470,7 +88460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88580,7 +88570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88690,7 +88680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88800,7 +88790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -88910,7 +88900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -89020,7 +89010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -89144,12 +89134,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -89259,7 +89249,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89369,7 +89359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89479,7 +89469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89589,7 +89579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89699,7 +89689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89809,7 +89799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89919,7 +89909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -90029,7 +90019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -90139,7 +90129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -90249,7 +90239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
